--- a/build/jig/business-rule.xlsx
+++ b/build/jig/business-rule.xlsx
@@ -19,23 +19,23 @@
     <sheet name="注意メソッド" r:id="rId13" sheetId="11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">PACKAGE!$A$1:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">ALL!$A$1:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">IDENTIFIER!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">ENUM!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">PACKAGE!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">ALL!$A$1:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">IDENTIFIER!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">ENUM!$A$1:$I$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">NUMBER!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">COLLECTION!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">COLLECTION!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="true">DATE!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="true">TERM!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="true">VALIDATION!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="true">文字列比較箇所!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="true">注意メソッド!$A$1:$K$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="true">注意メソッド!$A$1:$K$39</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="102">
   <si>
     <t/>
   </si>
@@ -52,25 +52,85 @@
     <t>warikan.domain.model</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>warikan.domain.model.members</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>クラス名</t>
+  </si>
+  <si>
+    <t>クラス別名</t>
+  </si>
+  <si>
+    <t>支払比重</t>
+  </si>
+  <si>
+    <t>請求金額</t>
+  </si>
+  <si>
+    <t>参加者支払い金額</t>
+  </si>
+  <si>
+    <t>幹事</t>
+  </si>
+  <si>
+    <t>飲み会</t>
+  </si>
+  <si>
+    <t>支払区分</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>通貨</t>
+  </si>
+  <si>
+    <t>参加者</t>
+  </si>
+  <si>
+    <t>members.Member</t>
+  </si>
+  <si>
+    <t>members.Members</t>
+  </si>
+  <si>
+    <t>メンバーグループ</t>
+  </si>
+  <si>
+    <t>members.MemberName</t>
+  </si>
+  <si>
+    <t>参加者名</t>
+  </si>
+  <si>
+    <t>members.SecretaryType</t>
+  </si>
+  <si>
+    <t>幹事区分</t>
+  </si>
+  <si>
+    <t>支払金額</t>
+  </si>
+  <si>
+    <t>支払区分比重設定</t>
+  </si>
+  <si>
+    <t>使用箇所数</t>
+  </si>
+  <si>
+    <t>使用箇所</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>クラス名</t>
-  </si>
-  <si>
-    <t>クラス別名</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>通貨</t>
-  </si>
-  <si>
-    <t>使用箇所数</t>
-  </si>
-  <si>
-    <t>使用箇所</t>
+    <t>[Member]</t>
   </si>
   <si>
     <t>定数宣言</t>
@@ -88,6 +148,27 @@
     <t>多態</t>
   </si>
   <si>
+    <t>[多め, 普通, 少なめ]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>[参加者, 幹事, 支払区分比重設定]</t>
+  </si>
+  <si>
+    <t>[NonSecretary, Secretary]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>[Member, Members]</t>
+  </si>
+  <si>
     <t>フィールドの型</t>
   </si>
   <si>
@@ -97,6 +178,18 @@
     <t>メソッド一覧</t>
   </si>
   <si>
+    <t>List&lt;Member&gt;</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>[&lt;init&gt;(List):void, &lt;init&gt;(Member, List):void, contains(Member):boolean, exists(Predicate):boolean, nonSecretaries():Members, of(Member, List):Members, of(Member, Member[]):Members, secretaries():Members, size():int, sizeOf(SecretaryType):int, sizeOfNonSecretaries():int, sizeOfSecretaries():int, validateSecretary(List):void]</t>
+  </si>
+  <si>
     <t>メンバ名</t>
   </si>
   <si>
@@ -148,15 +241,9 @@
     <t>int</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>compareTo(Money)</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>divide(double)</t>
   </si>
   <si>
@@ -215,6 +302,45 @@
   </si>
   <si>
     <t>times(long, RoundingMode)</t>
+  </si>
+  <si>
+    <t>isSecretary()</t>
+  </si>
+  <si>
+    <t>nonSecretary()</t>
+  </si>
+  <si>
+    <t>contains(Member)</t>
+  </si>
+  <si>
+    <t>exists(Predicate)</t>
+  </si>
+  <si>
+    <t>size()</t>
+  </si>
+  <si>
+    <t>sizeOf(SecretaryType)</t>
+  </si>
+  <si>
+    <t>sizeOfNonSecretaries()</t>
+  </si>
+  <si>
+    <t>sizeOfSecretaries()</t>
+  </si>
+  <si>
+    <t>validateSecretary(List)</t>
+  </si>
+  <si>
+    <t>to参加者()</t>
+  </si>
+  <si>
+    <t>請求金額を設定する(飲み会, 請求金額)</t>
+  </si>
+  <si>
+    <t>支払金額を計算する()</t>
+  </si>
+  <si>
+    <t>Set</t>
   </si>
 </sst>
 </file>
@@ -259,13 +385,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.34375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.23046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.87890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.37890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -292,8 +418,19 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C2"/>
+  <autoFilter ref="A1:C3"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -312,10 +449,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -326,16 +463,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.35546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.73046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.2109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.2109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="12.04296875" customWidth="true" bestFit="true"/>
@@ -347,57 +484,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -406,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -417,25 +554,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -452,16 +589,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -470,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -487,25 +624,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -522,25 +659,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -557,25 +694,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -592,25 +729,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -627,28 +764,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
         <v>0</v>
@@ -657,33 +794,33 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -697,25 +834,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -732,28 +869,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -767,28 +904,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -802,28 +939,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -837,28 +974,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -872,28 +1009,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -907,28 +1044,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I17" t="s">
         <v>0</v>
@@ -942,25 +1079,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
         <v>0</v>
@@ -977,22 +1114,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
         <v>0</v>
@@ -1012,25 +1149,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
         <v>0</v>
@@ -1047,25 +1184,25 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
         <v>0</v>
@@ -1082,25 +1219,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
         <v>0</v>
@@ -1117,25 +1254,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
         <v>0</v>
@@ -1150,94 +1287,772 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+      <c r="K39" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K23"/>
+  <autoFilter ref="A1:K39"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.34765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B2"/>
+  <autoFilter ref="A1:B15"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.47265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D2"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.34765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.265625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.2109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="28.390625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.04296875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="4.7109375" customWidth="true" bestFit="true"/>
@@ -1245,35 +2060,93 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>16</v>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I3"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1294,16 +2167,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1314,46 +2187,69 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.87890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.1015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.32421875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.2109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="8.37890625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="12.04296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G2"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1374,16 +2270,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1408,16 +2304,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1444,22 +2340,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
